--- a/外部設計/資料/円弧配列メニュー.xlsx
+++ b/外部設計/資料/円弧配列メニュー.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構成" sheetId="9" r:id="rId1"/>
-    <sheet name="①「Primitive &quot;CH&quot;」" sheetId="10" r:id="rId2"/>
-    <sheet name="②「Editing &quot;CH&quot;」" sheetId="11" r:id="rId3"/>
-    <sheet name="③「Brand placement」" sheetId="12" r:id="rId4"/>
-    <sheet name="④「Brand drawing」" sheetId="13" r:id="rId5"/>
-    <sheet name="⑤「Character search」" sheetId="14" r:id="rId6"/>
+    <sheet name="リボンイメージ" sheetId="15" r:id="rId2"/>
+    <sheet name="①「Primitive &quot;CH&quot;」" sheetId="10" r:id="rId3"/>
+    <sheet name="②「Editing &quot;CH&quot;」" sheetId="11" r:id="rId4"/>
+    <sheet name="③「Brand placement」" sheetId="12" r:id="rId5"/>
+    <sheet name="④「Brand drawing」" sheetId="13" r:id="rId6"/>
+    <sheet name="⑤「Character search」" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5146,6 +5147,9115 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="上矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="2524125"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>237005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31815</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="グループ化 53"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="851525" y="3332630"/>
+          <a:ext cx="1923490" cy="2049556"/>
+          <a:chOff x="851525" y="3332630"/>
+          <a:chExt cx="1923490" cy="2049556"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="図 41"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="851525" y="3332630"/>
+            <a:ext cx="1923490" cy="2049556"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="880221" y="3571876"/>
+            <a:ext cx="891429" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1819276" y="3371850"/>
+            <a:ext cx="914400" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="880221" y="4381500"/>
+            <a:ext cx="929529" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69914</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130545</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="グループ化 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3632824" y="3342151"/>
+          <a:ext cx="1923490" cy="2027144"/>
+          <a:chOff x="3632824" y="3342151"/>
+          <a:chExt cx="1923490" cy="2027144"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="49" name="図 48"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3632824" y="3342151"/>
+            <a:ext cx="1923490" cy="2027144"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4600574" y="3390900"/>
+            <a:ext cx="914401" cy="571499"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3671046" y="4591051"/>
+            <a:ext cx="891429" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3680571" y="4991101"/>
+            <a:ext cx="891429" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="上矢印 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="2533650"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="グループ化 93"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6664575" y="3333750"/>
+          <a:ext cx="1924050" cy="4192681"/>
+          <a:chOff x="6664575" y="3333750"/>
+          <a:chExt cx="1924050" cy="4192681"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="70" name="図 69"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6664575" y="3333750"/>
+            <a:ext cx="1924050" cy="4192681"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6719046" y="3571876"/>
+            <a:ext cx="891429" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7639049" y="3381376"/>
+            <a:ext cx="914401" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6728571" y="4600576"/>
+            <a:ext cx="891429" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="上矢印 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="2543175"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120901</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="グループ化 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9722101" y="3324225"/>
+          <a:ext cx="1914525" cy="4184837"/>
+          <a:chOff x="9722101" y="3324225"/>
+          <a:chExt cx="1914525" cy="4184837"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="88" name="図 87"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9722101" y="3324225"/>
+            <a:ext cx="1914525" cy="4184837"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9757521" y="6629401"/>
+            <a:ext cx="939054" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9767046" y="6229351"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10677525" y="3362325"/>
+            <a:ext cx="923925" cy="571499"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="上矢印 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="2552700"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="上矢印 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="2562225"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352864</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219514</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146236</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="271" name="グループ化 270"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12697264" y="3324225"/>
+          <a:ext cx="1924050" cy="4203886"/>
+          <a:chOff x="12697264" y="3324225"/>
+          <a:chExt cx="1924050" cy="4203886"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="103" name="図 102"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12697264" y="3324225"/>
+            <a:ext cx="1924050" cy="4203886"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729321" y="4191001"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13668376" y="3371850"/>
+            <a:ext cx="904874" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12738846" y="4381501"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>543362</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="274" name="グループ化 273"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15773837" y="3343275"/>
+          <a:ext cx="1914525" cy="4156261"/>
+          <a:chOff x="15773837" y="3343275"/>
+          <a:chExt cx="1914525" cy="4156261"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="117" name="図 116"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="15773837" y="3343275"/>
+            <a:ext cx="1914525" cy="4156261"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15786846" y="4772026"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15796371" y="5410201"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16744951" y="3371850"/>
+            <a:ext cx="904874" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="上矢印 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15925800" y="2571750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="上矢印 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18373725" y="2571750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>419536</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248086</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="338" name="グループ化 337"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18250336" y="3333750"/>
+          <a:ext cx="1885950" cy="4133850"/>
+          <a:chOff x="18250336" y="3333750"/>
+          <a:chExt cx="1885950" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="143" name="図 142"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="18250336" y="3333750"/>
+            <a:ext cx="1885950" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18272871" y="5200651"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19211926" y="3571875"/>
+            <a:ext cx="904874" cy="3848100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>375275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>241925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136712</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="268" name="グループ化 267"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20263475" y="3343275"/>
+          <a:ext cx="1924050" cy="4175312"/>
+          <a:chOff x="20263475" y="3343275"/>
+          <a:chExt cx="1924050" cy="4175312"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="156" name="図 155"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="20263475" y="3343275"/>
+            <a:ext cx="1924050" cy="4175312"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21240750" y="3381375"/>
+            <a:ext cx="904875" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="上矢印 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21288375" y="2581275"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="341" name="グループ化 340"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="647700" y="257175"/>
+          <a:ext cx="24422100" cy="2176029"/>
+          <a:chOff x="647700" y="257175"/>
+          <a:chExt cx="24422100" cy="2176029"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="L 字 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="647700" y="261620"/>
+            <a:ext cx="24422100" cy="2119630"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 80031"/>
+              <a:gd name="adj2" fmla="val 50542"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="676276" y="257175"/>
+            <a:ext cx="1000124" cy="389890"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Brand</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="676275" y="2043314"/>
+            <a:ext cx="5781675" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Primitive "CH"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="837989" y="821055"/>
+            <a:ext cx="1306618" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Frame</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> drawing</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6472557" y="686437"/>
+            <a:ext cx="20668" cy="1704338"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3609764" y="1440180"/>
+            <a:ext cx="1306618" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6524625" y="2033789"/>
+            <a:ext cx="6019800" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="グループ化 58"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="828464" y="1440180"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Definition</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Figure</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> definition</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Released</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="グループ化 59"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3609764" y="840105"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Character</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> origin</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6629189" y="840105"/>
+            <a:ext cx="1306618" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="81" name="グループ化 80"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6629189" y="1430655"/>
+            <a:ext cx="3019636" cy="483870"/>
+            <a:chOff x="9077114" y="3326130"/>
+            <a:chExt cx="3019636" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10391682" y="3326130"/>
+              <a:ext cx="1705068" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Additional character</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9077114" y="3326130"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>One character</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10391775" y="3573780"/>
+              <a:ext cx="1704975" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Before adding character</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="82" name="グループ化 81"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9705764" y="840105"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Auto Dimensions</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9696239" y="1421130"/>
+            <a:ext cx="1306618" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="直線コネクタ 94"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="12539982" y="686437"/>
+            <a:ext cx="20668" cy="1704338"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="97" name="グループ化 96"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12677564" y="859155"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Base diameter line</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12592049" y="2052839"/>
+            <a:ext cx="12449175" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Brand placement</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="112" name="グループ化 111"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12677564" y="1430655"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Baseline</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="120" name="グループ化 119"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="15458864" y="859155"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Brand balloon</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="138" name="グループ化 137"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18249689" y="849630"/>
+            <a:ext cx="3714961" cy="1226820"/>
+            <a:chOff x="18554489" y="3402330"/>
+            <a:chExt cx="3714961" cy="1226820"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19869058" y="3402330"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Base editing "CH"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="126" name="正方形/長方形 125"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18554489" y="3402330"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Grouping</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19869058" y="3649980"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"Add" editing "CH"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19869058" y="3897630"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Relative position</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="129" name="正方形/長方形 128"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19869058" y="4145280"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Auto Dimensions</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19869058" y="4392930"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Released</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="132" name="正方形/長方形 131"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21259708" y="4135755"/>
+              <a:ext cx="1009742" cy="169545"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="133" name="正方形/長方形 132"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21259708" y="4316730"/>
+              <a:ext cx="1009742" cy="169545"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="134" name="グループ化 133"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="15458864" y="1421130"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Base  line</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="199" name="グループ化 198"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="22031114" y="840105"/>
+            <a:ext cx="2701409" cy="979170"/>
+            <a:chOff x="13687214" y="8726805"/>
+            <a:chExt cx="2701409" cy="979170"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15001783" y="8726805"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Target "CH"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="192" name="正方形/長方形 191"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13687214" y="8726805"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Arc placement</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15001783" y="8974455"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Radial direction</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15001783" y="9222105"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>DIA direction</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15001783" y="9469755"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="上矢印 266"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="10172700"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415177</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233642</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>198904</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="280" name="グループ化 279"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1100977" y="10953750"/>
+          <a:ext cx="1875865" cy="1865779"/>
+          <a:chOff x="491377" y="10944225"/>
+          <a:chExt cx="1875865" cy="1865779"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="203" name="図 202"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="491377" y="10944225"/>
+            <a:ext cx="1875865" cy="1865779"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="273" name="正方形/長方形 272"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447801" y="11591926"/>
+            <a:ext cx="904874" cy="1181100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423021</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>270061</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="286" name="グループ化 285"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3852021" y="10976376"/>
+          <a:ext cx="1904440" cy="1655109"/>
+          <a:chOff x="3852021" y="10976376"/>
+          <a:chExt cx="1904440" cy="1655109"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="276" name="図 275"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3852021" y="10976376"/>
+            <a:ext cx="1904440" cy="1655109"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="279" name="正方形/長方形 278"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4791076" y="11410950"/>
+            <a:ext cx="923924" cy="1209675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="上矢印 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="10182225"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285190</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="283" name="図 282"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6610350" y="10957324"/>
+          <a:ext cx="1904440" cy="1253938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="正方形/長方形 284"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="10982325"/>
+          <a:ext cx="914400" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="上矢印 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="10210800"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>430865</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>213122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249330</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>45034</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="309" name="グループ化 308"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6603065" y="12357497"/>
+          <a:ext cx="1875865" cy="4118162"/>
+          <a:chOff x="6603065" y="12357497"/>
+          <a:chExt cx="1875865" cy="4118162"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="289" name="図 288"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6603065" y="12357497"/>
+            <a:ext cx="1875865" cy="4118162"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="272" name="正方形/長方形 271"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7538196" y="13173076"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>678394</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>545044</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="325" name="グループ化 324"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9593794" y="10944225"/>
+          <a:ext cx="1924050" cy="4164106"/>
+          <a:chOff x="9593794" y="10944225"/>
+          <a:chExt cx="1924050" cy="4164106"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="296" name="図 295"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9593794" y="10944225"/>
+            <a:ext cx="1924050" cy="4164106"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="307" name="正方形/長方形 306"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9614646" y="11163301"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="308" name="正方形/長方形 307"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10563225" y="10972800"/>
+            <a:ext cx="914400" cy="581025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>204354</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="342" name="グループ化 341"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="390525" y="7792088"/>
+          <a:ext cx="15173325" cy="2175391"/>
+          <a:chOff x="390525" y="7792088"/>
+          <a:chExt cx="15173325" cy="2175391"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="200" name="L 字 199"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="390525" y="7795895"/>
+            <a:ext cx="15173325" cy="2119630"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 80031"/>
+              <a:gd name="adj2" fmla="val 1151950"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="201" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438151" y="9587114"/>
+            <a:ext cx="8705850" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Brand placement</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="221" name="グループ化 220"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="552239" y="7917180"/>
+            <a:ext cx="2701409" cy="1226820"/>
+            <a:chOff x="5400464" y="12327255"/>
+            <a:chExt cx="2701409" cy="1226820"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6715033" y="12327255"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Mold number</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5400464" y="12327255"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Template1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6715033" y="12574905"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Serial</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="218" name="正方形/長方形 217"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6715033" y="12822555"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Plant Code 3digit</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="219" name="正方形/長方形 218"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6715033" y="13070205"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>E No.</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6715033" y="13317855"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>New I Mark</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="259" name="グループ化 258"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6219614" y="7917180"/>
+            <a:ext cx="2701409" cy="1226820"/>
+            <a:chOff x="3457364" y="10184130"/>
+            <a:chExt cx="2701409" cy="1226820"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="233" name="正方形/長方形 232"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10184130"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>UTQG</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="234" name="正方形/長方形 233"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3457364" y="10184130"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Template3</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="235" name="正方形/長方形 234"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10431780"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>MAX</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> LOAD</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="236" name="正方形/長方形 235"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10679430"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>PLY1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="237" name="正方形/長方形 236"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10927080"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>PLY2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="238" name="正方形/長方形 237"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="11174730"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Etc</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="242" name="グループ化 241"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3390689" y="7907655"/>
+            <a:ext cx="2701409" cy="1722120"/>
+            <a:chOff x="3457364" y="10184130"/>
+            <a:chExt cx="2701409" cy="1722120"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="243" name="正方形/長方形 242"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10184130"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Pattern Code</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="244" name="正方形/長方形 243"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3457364" y="10184130"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Template2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="245" name="正方形/長方形 244"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10431780"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Size</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="246" name="正方形/長方形 245"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10679430"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Load index(S)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="247" name="正方形/長方形 246"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="10927080"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Load index(D)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="248" name="正方形/長方形 247"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="11174730"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>LT</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="249" name="正方形/長方形 248"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="11670030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Air pressure "indi"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="250" name="正方形/長方形 249"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771933" y="11422380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>PR</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="262" name="正方形/長方形 261"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6200564" y="9260205"/>
+            <a:ext cx="1306618" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Plate</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="293" name="直線コネクタ 292"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9130033" y="7801613"/>
+            <a:ext cx="13967" cy="2123437"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="299" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9182100" y="9568064"/>
+            <a:ext cx="3028949" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Brand drawing</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="302" name="グループ化 301"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9315239" y="7926705"/>
+            <a:ext cx="2701409" cy="483870"/>
+            <a:chOff x="6533939" y="3040380"/>
+            <a:chExt cx="2701409" cy="483870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="303" name="正方形/長方形 302"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3040380"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="304" name="正方形/長方形 303"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6533939" y="3040380"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Code table</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="305" name="正方形/長方形 304"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848508" y="3288030"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="306" name="直線コネクタ 305"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="12235183" y="7792088"/>
+            <a:ext cx="13967" cy="2123437"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="321" name="グループ化 320"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12410864" y="7926705"/>
+            <a:ext cx="2701409" cy="731520"/>
+            <a:chOff x="14534939" y="11089005"/>
+            <a:chExt cx="2701409" cy="731520"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="315" name="正方形/長方形 314"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15849508" y="11089005"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Primitive "CH"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="316" name="正方形/長方形 315"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14534939" y="11089005"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Character search</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="317" name="正方形/長方形 316"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15849508" y="11336655"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Editing "CH" 1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="318" name="正方形/長方形 317"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15849508" y="11584305"/>
+              <a:ext cx="1386840" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Editing "CH" 2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="322" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12277725" y="9558539"/>
+            <a:ext cx="3248025" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Character search</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>408455</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274545</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>75079</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="326" name="グループ化 325"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12752855" y="10963275"/>
+          <a:ext cx="1923490" cy="4113679"/>
+          <a:chOff x="12752855" y="10963275"/>
+          <a:chExt cx="1923490" cy="4113679"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="311" name="図 310"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12752855" y="10963275"/>
+            <a:ext cx="1923490" cy="4113679"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="323" name="正方形/長方形 322"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13735050" y="11001375"/>
+            <a:ext cx="914400" cy="771525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="324" name="正方形/長方形 323"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12786471" y="13011151"/>
+            <a:ext cx="929529" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="上矢印 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="10229850"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="上矢印 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="10201275"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>454277</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>311402</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="339" name="グループ化 338"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22399877" y="3352800"/>
+          <a:ext cx="1914525" cy="4152900"/>
+          <a:chOff x="22399877" y="3352800"/>
+          <a:chExt cx="1914525" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="330" name="図 329"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="22399877" y="3352800"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="336" name="正方形/長方形 335"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22425771" y="5838826"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="337" name="正方形/長方形 336"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23364825" y="3390900"/>
+            <a:ext cx="914400" cy="2228850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="上矢印 339"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22993350" y="2590800"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -8077,7 +17187,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12196,7 +21306,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25392,7 +34502,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26544,7 +35654,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28235,12 +37345,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFECAF"/>
   </sheetPr>
   <dimension ref="B1:R51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -28339,14 +37465,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFECAF"/>
   </sheetPr>
   <dimension ref="B1:R96"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -28506,14 +37632,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFECAF"/>
   </sheetPr>
   <dimension ref="B2:AD262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W172" sqref="W172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29226,7 +38354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFECAF"/>
@@ -29335,7 +38463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFECAF"/>

--- a/外部設計/資料/円弧配列メニュー.xlsx
+++ b/外部設計/資料/円弧配列メニュー.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>＜Advance CAD＞</t>
     <phoneticPr fontId="1"/>
@@ -811,12 +811,32 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>④―2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「図面登録」画面を表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +895,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -898,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3577,192 +3607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="270" name="グループ化 269"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8418419" y="8063194"/>
-          <a:ext cx="2893919" cy="715495"/>
-          <a:chOff x="7753350" y="6448426"/>
-          <a:chExt cx="2905125" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="181" name="正方形/長方形 180"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7820025" y="6515100"/>
-            <a:ext cx="2771775" cy="590550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="182" name="正方形/長方形 181"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7934325" y="6667500"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Code table</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="185" name="正方形/長方形 184"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7753350" y="6448426"/>
-            <a:ext cx="2905125" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="31750">
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>157071</xdr:colOff>
+      <xdr:colOff>158128</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>151001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>90015</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3774,12 +3628,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6605496" y="7858126"/>
-          <a:ext cx="1833654" cy="1366836"/>
+          <a:off x="6590304" y="8420942"/>
+          <a:ext cx="1828115" cy="1350955"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 66103"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="34925">
@@ -5140,6 +4994,241 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8418419" y="8063194"/>
+          <a:ext cx="3504640" cy="715495"/>
+          <a:chOff x="8418419" y="8063194"/>
+          <a:chExt cx="3504640" cy="715495"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8484837" y="8129094"/>
+            <a:ext cx="3370987" cy="583693"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="正方形/長方形 181"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8598696" y="8279724"/>
+            <a:ext cx="1347332" cy="282432"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Code table</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8418419" y="8063194"/>
+            <a:ext cx="3504640" cy="715495"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10223552" y="8279724"/>
+            <a:ext cx="1347332" cy="282432"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Drawing "resist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5281,7 +5370,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5328,7 +5421,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -5375,7 +5472,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5491,7 +5592,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -5538,7 +5643,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5585,7 +5694,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5758,7 +5871,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5805,7 +5922,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -5852,7 +5973,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6000,16 +6125,12 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:extLst/>
         </xdr:spPr>
       </xdr:pic>
       <xdr:sp macro="" textlink="">
@@ -6025,7 +6146,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6072,7 +6197,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6119,7 +6248,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -6349,7 +6482,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6396,7 +6533,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -6443,7 +6584,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6559,7 +6704,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6606,7 +6755,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6653,7 +6806,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -6883,7 +7040,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -6930,7 +7091,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -7046,7 +7211,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -10554,16 +10723,10 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:extLst/>
         </xdr:spPr>
       </xdr:pic>
       <xdr:sp macro="" textlink="">
@@ -10579,7 +10742,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -10695,7 +10862,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -10870,7 +11041,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="22000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln w="31750">
           <a:solidFill>
             <a:schemeClr val="accent6">
@@ -11042,7 +11217,62 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="正方形/長方形 176"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7547721" y="12372975"/>
+            <a:ext cx="929529" cy="609599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -11158,7 +11388,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -11205,10 +11439,65 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9614646" y="12192001"/>
+            <a:ext cx="929529" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
                 <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -13152,9 +13441,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="9315239" y="7926705"/>
-            <a:ext cx="2701409" cy="483870"/>
+            <a:ext cx="2701409" cy="1000125"/>
             <a:chOff x="6533939" y="3040380"/>
-            <a:chExt cx="2701409" cy="483870"/>
+            <a:chExt cx="2701409" cy="1000125"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -13334,6 +13623,74 @@
                 <a:t>Delete</a:t>
               </a:r>
               <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6552989" y="3669030"/>
+              <a:ext cx="1306618" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Drawing "regist"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -13807,15 +14164,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
+          <a:extLst/>
         </xdr:spPr>
       </xdr:pic>
       <xdr:sp macro="" textlink="">
@@ -13831,7 +14180,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -13878,7 +14231,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -14108,7 +14465,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -14155,7 +14516,11 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:alpha val="22000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln w="31750">
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -34562,7 +34927,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219197</xdr:colOff>
+      <xdr:colOff>212912</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
@@ -34579,10 +34944,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="219197" y="2106705"/>
-          <a:ext cx="2041777" cy="4164106"/>
-          <a:chOff x="219197" y="1456764"/>
-          <a:chExt cx="2041777" cy="4164106"/>
+          <a:off x="212912" y="2106705"/>
+          <a:ext cx="2048062" cy="4164106"/>
+          <a:chOff x="212912" y="1456764"/>
+          <a:chExt cx="2048062" cy="4164106"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -34679,6 +35044,51 @@
           <a:xfrm>
             <a:off x="219197" y="1640541"/>
             <a:ext cx="991037" cy="230841"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="212912" y="2671482"/>
+            <a:ext cx="1019733" cy="264459"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -35448,143 +35858,188 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>313764</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>148608</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="グループ化 92"/>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5142715" y="2150163"/>
-          <a:ext cx="4034903" cy="564592"/>
+          <a:ext cx="4337461" cy="564592"/>
           <a:chOff x="5142715" y="2150163"/>
-          <a:chExt cx="4034903" cy="564592"/>
+          <a:chExt cx="4337461" cy="564592"/>
         </a:xfrm>
-        <a:solidFill>
-          <a:srgbClr val="F1F8EC"/>
-        </a:solidFill>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="2" name="グループ化 1"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="5142715" y="2150163"/>
-            <a:ext cx="4034903" cy="564592"/>
-            <a:chOff x="5131509" y="1477810"/>
-            <a:chExt cx="4034903" cy="564592"/>
-          </a:xfrm>
-          <a:grpFill/>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5131509" y="1477810"/>
-              <a:ext cx="4034903" cy="564592"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:grpFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5749687" y="1628368"/>
-              <a:ext cx="1347975" cy="282296"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:grpFill/>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>Code table</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ext cx="4337461" cy="564592"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F1F8EC"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5760893" y="2300721"/>
+            <a:ext cx="1347975" cy="282296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F1F8EC"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+              </a:rPr>
+              <a:t>Code table</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7822782" y="2300721"/>
+            <a:ext cx="1347975" cy="282296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F1F8EC"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Drawing "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="92" name="正方形/長方形 91"/>
@@ -35598,7 +36053,9 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:grpFill/>
+          <a:solidFill>
+            <a:srgbClr val="F1F8EC"/>
+          </a:solidFill>
           <a:ln w="12700">
             <a:noFill/>
           </a:ln>
@@ -35648,7 +36105,390 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7227794" y="2241176"/>
+            <a:ext cx="537883" cy="403412"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F1F8EC"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>―2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>77655</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>65870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159815</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5142714" y="7125576"/>
+          <a:ext cx="2690197" cy="564592"/>
+          <a:chOff x="5142715" y="2217398"/>
+          <a:chExt cx="2678991" cy="564592"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5760893" y="2356749"/>
+            <a:ext cx="1347976" cy="282296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Drawing "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5142715" y="2217398"/>
+            <a:ext cx="2678991" cy="564592"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5710081" y="2312896"/>
+            <a:ext cx="1439273" cy="376516"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268939</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232645" y="3453653"/>
+          <a:ext cx="4493561" cy="3841376"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39277"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623288</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>624431</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6371906" y="7547223"/>
+          <a:ext cx="1143" cy="935630"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>439755</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>147469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4639234" y="8482853"/>
+          <a:ext cx="3599815" cy="3710940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -37365,7 +38205,7 @@
   <dimension ref="B1:R51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -37472,7 +38312,7 @@
   </sheetPr>
   <dimension ref="B1:R96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -37639,9 +38479,7 @@
   </sheetPr>
   <dimension ref="B2:AD262"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W172" sqref="W172"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -38415,7 +39253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="9:13" x14ac:dyDescent="0.4">
       <c r="J17" t="s">
         <v>63</v>
       </c>
@@ -38423,9 +39261,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:13" x14ac:dyDescent="0.4">
       <c r="J18" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I30" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.4">
+      <c r="K33" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.4">
